--- a/Presupuesto/Presupuesto alumnos.xlsx
+++ b/Presupuesto/Presupuesto alumnos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -41,6 +41,18 @@
   </si>
   <si>
     <t xml:space="preserve">tornillos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bulones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cable TPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toma macho</t>
   </si>
 </sst>
 </file>
@@ -131,7 +143,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -157,10 +169,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -241,10 +249,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -301,15 +309,108 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="A4" s="6" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="A5" s="6" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
